--- a/data/01 大断面/赣江下游.xlsx
+++ b/data/01 大断面/赣江下游.xlsx
@@ -8,20 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计算科\“千吨万人”农村饮水工程监测预警系统建设实施方案\20230624修改稿\02 典型设计水源地\01 大断面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163D317-24D8-4B7B-A4BE-34B67A68299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483FF64-9075-46B4-A80A-D10617668D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32925" yWindow="2985" windowWidth="23460" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="段潭农饮水工程大断面" sheetId="1" r:id="rId1"/>
-    <sheet name="芦溪县新泉乡集中供水工程大断面数据" sheetId="3" r:id="rId2"/>
-    <sheet name="临江农饮水工程大断面" sheetId="2" r:id="rId3"/>
-    <sheet name="罗城镇集中供水工程" sheetId="4" r:id="rId4"/>
+    <sheet name="芦溪县新泉乡集中供水工程大断面数据" sheetId="3" r:id="rId1"/>
+    <sheet name="临江农饮水工程大断面" sheetId="2" r:id="rId2"/>
+    <sheet name="罗城镇集中供水工程" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,13 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>右岸</t>
-  </si>
-  <si>
-    <t>右岸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左岸</t>
@@ -74,14 +67,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>历史最高水位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取水口高程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>右岸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,8 +75,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低枯水标准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>调查最高水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低枯水预警水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取水口高程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极枯水预警水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,15 +155,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,11 +238,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,16 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,15 +289,42 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,850 +344,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:rPr>
-              <a:t>段潭农饮水取水口大断面图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$3:$F$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0590084738595298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1745005040351106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.3275961024486</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.258307090928898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.553930256631201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.116734603724101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.957581722586198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41.348330450222001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.0180682586385</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.157163810570097</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.429712349393803</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57.192160263530397</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>59.3484406256242</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.944298301735003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.934512697033696</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.113346390350401</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72.341584974649194</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76.304656108396898</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>78.812558436697302</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84.812558436697302</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.812558436697302</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>96.812558436697302</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>102.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>108.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>126.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>132.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>138.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>146.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>152.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>158.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>164.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>170.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>176.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>182.812558436697</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>189.34387828815201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>190.60406802787</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>192.039110501072</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>194.169467428953</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>198.79619069712101</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>203.566516279133</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>211.08913407684199</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>217.17079901334799</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>219.20039665827201</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>223.032091844419</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>226.71085735752601</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>230.531658170181</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>236.40805363845701</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>239.230241642479</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>242.10152200155699</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>249.273104020093</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>262.88139152454198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$3:$G$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>21.956099999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.857099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.8611</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.677099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.0001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.5671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.109100000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.807099999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.179099999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.805099999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.806100000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.066099999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.591100000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.1861</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.043100000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.8371</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.3391</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.9361</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.5471</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.488099999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.5411</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.44</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.79</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.84</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.23</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.73</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.82</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.24</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.39</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.546099999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.8651</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14.4451</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.9741</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14.0151</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14.225099999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.2881</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.8201</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15.472099999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.3581</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>17.585100000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18.7331</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19.4131</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20.734100000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>21.781099999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>21.653099999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21.3431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5854-4064-879F-434B71CCA1AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$64:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>78.812558436697302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>189.34387828815201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$64:$G$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5854-4064-879F-434B71CCA1AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="705076853"/>
-        <c:axId val="546055593"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="705076853"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:rPr>
-                  <a:t>起点距</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:rPr>
-                  <a:t>/m</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr defTabSz="914400">
-                <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="546055593"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="546055593"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:rPr>
-                  <a:t>高程</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  </a:rPr>
-                  <a:t>/m</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr defTabSz="914400">
-                <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="705076853"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN" sz="1100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1508,7 +699,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1543,7 +734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]断面计算图表!$C$2</c:f>
+              <c:f>[1]断面计算图表!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1581,7 +772,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]断面计算图表!$B$3:$B$49</c:f>
+              <c:f>[1]断面计算图表!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -1731,7 +922,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]断面计算图表!$C$3:$C$49</c:f>
+              <c:f>[1]断面计算图表!$C$3:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -1903,7 +1094,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]断面计算图表!$B$7:$B$38</c:f>
+              <c:f>[1]断面计算图表!$B$7:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2008,7 +1199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]断面计算图表!$F$7:$F$38</c:f>
+              <c:f>[1]断面计算图表!$F$7:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2339,7 +1530,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2881,48 +2072,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2949,8 +2100,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3030,6 +2181,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3040,6 +2196,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3051,7 +2212,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3071,6 +2232,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3083,10 +2247,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3126,23 +2290,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3247,8 +2410,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3380,20 +2543,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3407,17 +2569,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3953,606 +3104,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A507A30B-B37D-4232-8EFF-602A10BFF6AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.84823</cdr:x>
-      <cdr:y>0.18638</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.93047</cdr:x>
-      <cdr:y>0.24904</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4911725" y="736600"/>
-          <a:ext cx="476250" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>左岸</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4595,7 +3147,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4638,7 +3190,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4756,7 +3308,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4798,546 +3350,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>21.956099999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>6</v>
-          </cell>
-          <cell r="G4">
-            <v>21.857099999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>6.0590084738595298</v>
-          </cell>
-          <cell r="G5">
-            <v>21.8611</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>8.1745005040351106</v>
-          </cell>
-          <cell r="G6">
-            <v>20.677099999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>12.3275961024486</v>
-          </cell>
-          <cell r="G7">
-            <v>19.0001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>17.258307090928898</v>
-          </cell>
-          <cell r="G8">
-            <v>17.5671</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>20.553930256631201</v>
-          </cell>
-          <cell r="G9">
-            <v>17.109100000000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>27.116734603724101</v>
-          </cell>
-          <cell r="G10">
-            <v>16.807099999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>34.957581722586198</v>
-          </cell>
-          <cell r="G11">
-            <v>16.179099999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>41.348330450222001</v>
-          </cell>
-          <cell r="G12">
-            <v>15.805099999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>46.0180682586385</v>
-          </cell>
-          <cell r="G13">
-            <v>15.806100000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>48.157163810570097</v>
-          </cell>
-          <cell r="G14">
-            <v>16.066099999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>55.429712349393803</v>
-          </cell>
-          <cell r="G15">
-            <v>15.591100000000001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>57.192160263530397</v>
-          </cell>
-          <cell r="G16">
-            <v>15.1861</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>59.3484406256242</v>
-          </cell>
-          <cell r="G17">
-            <v>15.043100000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>63.944298301735003</v>
-          </cell>
-          <cell r="G18">
-            <v>14.8371</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>67.934512697033696</v>
-          </cell>
-          <cell r="G19">
-            <v>14.3391</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>71.113346390350401</v>
-          </cell>
-          <cell r="G20">
-            <v>13.9361</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>72.341584974649194</v>
-          </cell>
-          <cell r="G21">
-            <v>13.5471</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>76.304656108396898</v>
-          </cell>
-          <cell r="G22">
-            <v>13.488099999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>78.812558436697302</v>
-          </cell>
-          <cell r="G23">
-            <v>13.5411</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>84.812558436697302</v>
-          </cell>
-          <cell r="G24">
-            <v>13.44</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>90.812558436697302</v>
-          </cell>
-          <cell r="G25">
-            <v>13.63</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>96.812558436697302</v>
-          </cell>
-          <cell r="G26">
-            <v>13.22</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>102.812558436697</v>
-          </cell>
-          <cell r="G27">
-            <v>13.04</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>108.812558436697</v>
-          </cell>
-          <cell r="G28">
-            <v>13.02</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>114.812558436697</v>
-          </cell>
-          <cell r="G29">
-            <v>12.79</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>120.812558436697</v>
-          </cell>
-          <cell r="G30">
-            <v>12.84</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>126.812558436697</v>
-          </cell>
-          <cell r="G31">
-            <v>13.23</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>132.812558436697</v>
-          </cell>
-          <cell r="G32">
-            <v>12.55</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>138.812558436697</v>
-          </cell>
-          <cell r="G33">
-            <v>12.73</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>146.812558436697</v>
-          </cell>
-          <cell r="G34">
-            <v>13.82</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>152.812558436697</v>
-          </cell>
-          <cell r="G35">
-            <v>13.24</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>158.812558436697</v>
-          </cell>
-          <cell r="G36">
-            <v>13.24</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>164.812558436697</v>
-          </cell>
-          <cell r="G37">
-            <v>13.37</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>170.812558436697</v>
-          </cell>
-          <cell r="G38">
-            <v>13.39</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>176.812558436697</v>
-          </cell>
-          <cell r="G39">
-            <v>13.26</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>182.812558436697</v>
-          </cell>
-          <cell r="G40">
-            <v>13.39</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>189.34387828815201</v>
-          </cell>
-          <cell r="G41">
-            <v>13.546099999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>190.60406802787</v>
-          </cell>
-          <cell r="G42">
-            <v>13.8651</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>192.039110501072</v>
-          </cell>
-          <cell r="G43">
-            <v>14.4451</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>194.169467428953</v>
-          </cell>
-          <cell r="G44">
-            <v>13.9741</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>198.79619069712101</v>
-          </cell>
-          <cell r="G45">
-            <v>14.0151</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>203.566516279133</v>
-          </cell>
-          <cell r="G46">
-            <v>14.225099999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>211.08913407684199</v>
-          </cell>
-          <cell r="G47">
-            <v>14.2881</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>217.17079901334799</v>
-          </cell>
-          <cell r="G48">
-            <v>14.8201</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>219.20039665827201</v>
-          </cell>
-          <cell r="G49">
-            <v>15.472099999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>223.032091844419</v>
-          </cell>
-          <cell r="G50">
-            <v>16.3581</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>226.71085735752601</v>
-          </cell>
-          <cell r="G51">
-            <v>17.585100000000001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>230.531658170181</v>
-          </cell>
-          <cell r="G52">
-            <v>18.7331</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>236.40805363845701</v>
-          </cell>
-          <cell r="G53">
-            <v>19.4131</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>239.230241642479</v>
-          </cell>
-          <cell r="G54">
-            <v>20.734100000000002</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>242.10152200155699</v>
-          </cell>
-          <cell r="G55">
-            <v>21.781099999999999</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>249.273104020093</v>
-          </cell>
-          <cell r="G56">
-            <v>21.653099999999998</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>262.88139152454198</v>
-          </cell>
-          <cell r="G57">
-            <v>21.3431</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>78.812558436697302</v>
-          </cell>
-          <cell r="G64">
-            <v>13.54</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>189.34387828815201</v>
-          </cell>
-          <cell r="G65">
-            <v>13.54</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>0</v>
-          </cell>
-          <cell r="B3">
-            <v>406.68700000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.1679999999999999</v>
-          </cell>
-          <cell r="B4">
-            <v>406.13600000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.748</v>
-          </cell>
-          <cell r="B5">
-            <v>406.15800000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2.867</v>
-          </cell>
-          <cell r="B6">
-            <v>406.166</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4.29</v>
-          </cell>
-          <cell r="B7">
-            <v>406.15600000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5.7770000000000001</v>
-          </cell>
-          <cell r="B8">
-            <v>406.20100000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>6.7240000000000002</v>
-          </cell>
-          <cell r="B9">
-            <v>406.084</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6090,11 +4102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D01F4C-FB76-4502-AB0D-9007E5A437FC}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6105,657 +4117,147 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>21.956099999999999</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6">
-        <v>18.98</v>
+      <c r="C2" s="4">
+        <v>406.68700000000001</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17">
+        <v>406.97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>21.857099999999999</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8">
-        <v>13.54</v>
+      <c r="B3" s="3">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>406.13600000000002</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>406.13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>6.059008473859528</v>
-      </c>
-      <c r="C4">
-        <v>21.8611</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11">
-        <v>12.5</v>
+      <c r="B4" s="3">
+        <v>1.748</v>
+      </c>
+      <c r="C4" s="4">
+        <v>406.15800000000002</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8">
+        <v>406.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>8.1745005040351124</v>
-      </c>
-      <c r="C5">
-        <v>20.677099999999999</v>
+      <c r="B5" s="3">
+        <v>2.867</v>
+      </c>
+      <c r="C5" s="4">
+        <v>406.166</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>406.08</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>12.327596102448586</v>
-      </c>
-      <c r="C6">
-        <v>19.0001</v>
+      <c r="B6" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>406.15600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>17.258307090928888</v>
-      </c>
-      <c r="C7">
-        <v>17.5671</v>
+      <c r="B7" s="3">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>406.20100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>20.553930256631183</v>
-      </c>
-      <c r="C8">
-        <v>17.109100000000002</v>
+      <c r="B8" s="3">
+        <v>6.7240000000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>406.084</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>27.116734603724058</v>
-      </c>
-      <c r="C9">
-        <v>16.807099999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>34.957581722586234</v>
-      </c>
-      <c r="C10">
-        <v>16.179099999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>41.348330450221958</v>
-      </c>
-      <c r="C11">
-        <v>15.805099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>46.018068258638529</v>
-      </c>
-      <c r="C12">
-        <v>15.806100000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>48.15716381057014</v>
-      </c>
-      <c r="C13">
-        <v>16.066099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>55.429712349393817</v>
-      </c>
-      <c r="C14">
-        <v>15.591100000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>57.192160263530432</v>
-      </c>
-      <c r="C15">
-        <v>15.1861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>59.348440625624164</v>
-      </c>
-      <c r="C16">
-        <v>15.043100000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>63.944298301735003</v>
-      </c>
-      <c r="C17">
-        <v>14.8371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>67.934512697033696</v>
-      </c>
-      <c r="C18">
-        <v>14.3391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>71.113346390350429</v>
-      </c>
-      <c r="C19">
-        <v>13.9361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>72.341584974649223</v>
-      </c>
-      <c r="C20">
-        <v>13.5471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>76.304656108396898</v>
-      </c>
-      <c r="C21">
-        <v>13.488099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>78.812558436697344</v>
-      </c>
-      <c r="C22">
-        <v>13.5411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>84.812558436697344</v>
-      </c>
-      <c r="C23">
-        <v>13.44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>90.812558436697344</v>
-      </c>
-      <c r="C24">
-        <v>13.63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>96.812558436697344</v>
-      </c>
-      <c r="C25">
-        <v>13.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>102.81255843669734</v>
-      </c>
-      <c r="C26">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>108.81255843669734</v>
-      </c>
-      <c r="C27">
-        <v>13.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>114.81255843669734</v>
-      </c>
-      <c r="C28">
-        <v>12.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>120.81255843669734</v>
-      </c>
-      <c r="C29">
-        <v>12.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>126.81255843669734</v>
-      </c>
-      <c r="C30">
-        <v>13.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>132.81255843669734</v>
-      </c>
-      <c r="C31">
-        <v>12.55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>138.81255843669734</v>
-      </c>
-      <c r="C32">
-        <v>12.73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>146.81255843669734</v>
-      </c>
-      <c r="C33">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>152.81255843669734</v>
-      </c>
-      <c r="C34">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>158.81255843669734</v>
-      </c>
-      <c r="C35">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>164.81255843669734</v>
-      </c>
-      <c r="C36">
-        <v>13.37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>170.81255843669734</v>
-      </c>
-      <c r="C37">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>176.81255843669734</v>
-      </c>
-      <c r="C38">
-        <v>13.26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>182.81255843669734</v>
-      </c>
-      <c r="C39">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>189.3438782881517</v>
-      </c>
-      <c r="C40">
-        <v>13.546099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>190.60406802786989</v>
-      </c>
-      <c r="C41">
-        <v>13.8651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>192.03911050107223</v>
-      </c>
-      <c r="C42">
-        <v>14.4451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>194.1694674289534</v>
-      </c>
-      <c r="C43">
-        <v>13.9741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>198.79619069712055</v>
-      </c>
-      <c r="C44">
-        <v>14.0151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>203.56651627913345</v>
-      </c>
-      <c r="C45">
-        <v>14.225099999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>211.08913407684156</v>
-      </c>
-      <c r="C46">
-        <v>14.2881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>217.17079901334802</v>
-      </c>
-      <c r="C47">
-        <v>14.8201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>219.20039665827215</v>
-      </c>
-      <c r="C48">
-        <v>15.472099999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>223.03209184441931</v>
-      </c>
-      <c r="C49">
-        <v>16.3581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>226.71085735752578</v>
-      </c>
-      <c r="C50">
-        <v>17.585100000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>230.53165817018092</v>
-      </c>
-      <c r="C51">
-        <v>18.7331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>236.40805363845709</v>
-      </c>
-      <c r="C52">
-        <v>19.4131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>239.23024164247857</v>
-      </c>
-      <c r="C53">
-        <v>20.734100000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>242.10152200155673</v>
-      </c>
-      <c r="C54">
-        <v>21.781099999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>249.27310402009334</v>
-      </c>
-      <c r="C55">
-        <v>21.653099999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>262.88139152454164</v>
-      </c>
-      <c r="C56">
-        <v>21.3431</v>
+      <c r="B9" s="12">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C9" s="13">
+        <v>406.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D01F4C-FB76-4502-AB0D-9007E5A437FC}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB96B9-63BF-422C-BF45-3AA8D1CE33DB}">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6766,151 +4268,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>406.68700000000001</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13">
-        <v>406.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>406.13600000000002</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13">
-        <v>406.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>1.748</v>
-      </c>
-      <c r="C4" s="4">
-        <v>406.15800000000002</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12">
-        <v>406.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>2.867</v>
-      </c>
-      <c r="C5" s="4">
-        <v>406.166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="C6" s="4">
-        <v>406.15600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>5.7770000000000001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>406.20100000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <v>6.7240000000000002</v>
-      </c>
-      <c r="C8" s="4">
-        <v>406.084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C9" s="18">
-        <v>406.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB96B9-63BF-422C-BF45-3AA8D1CE33DB}">
-  <dimension ref="A1:F50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -6918,11 +4293,11 @@
       <c r="C2" s="2">
         <v>29.64</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15">
-        <v>30.26</v>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="18">
+        <v>37.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6935,11 +4310,11 @@
       <c r="C3" s="2">
         <v>28.22</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="15">
-        <v>25.15</v>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19">
+        <v>22.9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6952,10 +4327,10 @@
       <c r="C4" s="2">
         <v>27.25</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10">
         <v>23</v>
       </c>
     </row>
@@ -6968,6 +4343,12 @@
       </c>
       <c r="C5" s="2">
         <v>26.87</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20">
+        <v>20.65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7472,12 +4853,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8FCC55-B023-4A86-AF2C-CABB99A5E07D}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7488,24 +4869,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -7513,11 +4894,11 @@
       <c r="C2">
         <v>91.690000000000012</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15">
-        <v>90.23</v>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="23">
+        <v>90.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7530,11 +4911,11 @@
       <c r="C3">
         <v>90.12</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="15">
-        <v>87.98</v>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18">
+        <v>86.26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -7547,13 +4928,13 @@
       <c r="C4">
         <v>87.600000000000009</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="21">
         <v>86.36</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -7565,6 +4946,12 @@
       <c r="C5">
         <v>86.360000000000014</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22">
+        <v>84.43</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -7810,7 +5197,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>249</v>
